--- a/biology/Médecine/Institut_Pasteur_d'Indonésie/Institut_Pasteur_d'Indonésie.xlsx
+++ b/biology/Médecine/Institut_Pasteur_d'Indonésie/Institut_Pasteur_d'Indonésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_Pasteur_d%27Indon%C3%A9sie</t>
+          <t>Institut_Pasteur_d'Indonésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Institut Pasteur d'Indonésie (Pasteur Instituut), antenne dans les Indes néerlandaises, puis en Indonésie indépendante, de l'Institut Pasteur, a existé de 1895 à 1960. Il était installé dans la ville de Bandung, dans l'ouest de l'île de Java. En 1961, le gouvernement indonésien a transformé l'institut en une entreprise d'État, connue aujourd'hui sous le nom de PT Bio Farma.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_Pasteur_d%27Indon%C3%A9sie</t>
+          <t>Institut_Pasteur_d'Indonésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par décisions du 6 août 1890, le gouvernement colonial des Indes néerlandaises crée un parc vaccinogène ou landskoepok inrichting à l'hôpital militaire de Weltevreden à Batavia (aujourd'hui RSPAD ou hôpital central de l'armée de terre à Jakarta). En 1895, l'institut prend le nom de Landskoepok Inrichting en Instituut Pasteur. Il s'installe en 1923 dans la ville de Bandung dans l'ouest de Java, dans un bâtiment conçu par l'architecte néerlandais C.P. Wolff Schoenmaker.
 Durant l'occupation japonaise (1942–1945), l'institut est renommé Bandung Boeki Kenkyushoo.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_Pasteur_d%27Indon%C3%A9sie</t>
+          <t>Institut_Pasteur_d'Indonésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Histoire de l'Institut Pasteur indonésien (en indonésien)
  Portail de la biologie   Portail de la médecine   Portail de l’Indonésie                   </t>
